--- a/Data/url-data.xlsx
+++ b/Data/url-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\URL-Shortener-nuxt\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F0361E-9D7F-4AB1-A774-976182B7E744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1327A7-D120-4C7A-A1DC-6F35BFCCE5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
